--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_2_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_2_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>870167.1922280174</v>
+        <v>794144.9222475592</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>434113.931204667</v>
+        <v>431491.3829109175</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12116072.32741042</v>
+        <v>12084479.76041391</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7442392.353488578</v>
+        <v>7474592.536872938</v>
       </c>
     </row>
     <row r="11">
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -679,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -746,22 +746,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>88.46061606973225</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.64124924790686</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -940,19 +940,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>1.809496073036132</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>166.6004839263543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1138,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1214,25 +1214,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>358.8573851663977</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>331.0869178506238</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>243.2386572690346</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>276.1565137023555</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1454,16 +1454,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>76.62446154719014</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1499,22 +1499,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>15.15029262237107</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.3983972633722</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9125518617455</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1548,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>153.551289182031</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>21.57990476584696</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2989899909938</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>123.7529098367821</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>276.1565137023555</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>243.2386572690346</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>276.1565137023555</v>
+        <v>119.9179075877519</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.4837081715351</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>98.42076593623702</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>190.3564384189606</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.5105486125224</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1691,13 +1691,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1739,13 +1739,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>172.7293950886402</v>
       </c>
       <c r="U15" t="n">
-        <v>163.3657543017353</v>
+        <v>225.9125518617455</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6773952840984929</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>174.4537986637794</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2989899909938</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>123.7529098367821</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>147.9494152558858</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.8442992113257</v>
+        <v>414.4837081715351</v>
       </c>
       <c r="H17" t="n">
-        <v>324.5385708368794</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>154.2494468627951</v>
+        <v>178.9002608012675</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>190.3564384189607</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.5105486125224</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>72.9312856687891</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1925,25 +1925,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>135.6487789765322</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>73.46183041893981</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.563183876413</v>
+        <v>136.905297830925</v>
       </c>
       <c r="H18" t="n">
-        <v>104.699067492951</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>62.52989468754939</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>51.70872008287463</v>
+        <v>72.94979525863039</v>
       </c>
       <c r="S18" t="n">
-        <v>157.1888225530135</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>197.0194379467206</v>
+        <v>198.3983972633722</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8900443647381</v>
+        <v>225.9125518617455</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>67.1814929985279</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>123.5289014911847</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2833454356968</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>172.9143832999992</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.4837081715351</v>
       </c>
       <c r="H20" t="n">
-        <v>324.5385708368794</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>154.2494468627951</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>58.25549283948423</v>
+        <v>98.42076593623705</v>
       </c>
       <c r="S20" t="n">
-        <v>175.7859067381893</v>
+        <v>190.3564384189606</v>
       </c>
       <c r="T20" t="n">
-        <v>216.7115358892058</v>
+        <v>219.5105486125224</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>103.6280860431916</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2168,19 +2168,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.563183876413</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>104.699067492951</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>62.52989468754939</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>157.1888225530135</v>
+        <v>163.5434392080944</v>
       </c>
       <c r="T21" t="n">
-        <v>177.1207760551511</v>
+        <v>60.20526556841071</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8900443647381</v>
+        <v>225.9125518617455</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.623590991012</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>217.6140207606495</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>24.81428807611433</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>151.8070851765908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>105.3148082618167</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>93.48944721115194</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -2377,16 +2377,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T24" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U24" t="n">
         <v>225.8879277888686</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>28.44734925172043</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>274.487665874544</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,25 +2557,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>229.7778803536984</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>14.44545687554095</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2702,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.3612404416283</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>202.8470972031504</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>200.5397039501089</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>15.90252802695406</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>291.9336040031819</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>215.0497352822186</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T33" t="n">
         <v>196.8897623984489</v>
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>59.72683757586824</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>100.5344742103486</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,25 +3268,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>412.6770870386998</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>127.7338060339683</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T36" t="n">
         <v>196.8897623984489</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>122.3623168480189</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>72.767692014606</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>32.44203069056074</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553069</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>68.19029374363589</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3723,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>116.4814587683028</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>218.3734398702018</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>270.6226856612329</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3757,7 +3757,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -3787,22 +3787,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>168.7756050755991</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>212.0685156039281</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,7 +3994,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>25.04399030169368</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S45" t="n">
-        <v>156.5912426325221</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T45" t="n">
         <v>196.8897623984489</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>34.02048567924309</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C2" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4363,19 +4363,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>109.3894334091926</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C3" t="n">
-        <v>109.3894334091926</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D3" t="n">
-        <v>109.3894334091926</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="E3" t="n">
-        <v>109.3894334091926</v>
+        <v>225.0492861822236</v>
       </c>
       <c r="F3" t="n">
-        <v>109.3894334091926</v>
+        <v>78.51472820910854</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>78.51472820910854</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>78.51472820910854</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4418,13 +4418,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>728.9050472788936</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W3" t="n">
-        <v>485.4562706347935</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X3" t="n">
-        <v>277.6047704292607</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y3" t="n">
-        <v>277.6047704292607</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4521,19 +4521,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E5" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>962.2293816994886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>962.2293816994886</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U5" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V5" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W5" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X5" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y5" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>352.9716273967953</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
         <v>19.28114311021272</v>
@@ -4649,16 +4649,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
         <v>894.6625969973069</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U6" t="n">
-        <v>689.4702815141908</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V6" t="n">
-        <v>689.4702815141908</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W6" t="n">
-        <v>689.4702815141908</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X6" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
-        <v>521.1869644168632</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4758,19 +4758,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D8" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E8" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F8" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4889,19 +4889,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M9" t="n">
-        <v>257.8852890990952</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4916,19 +4916,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4953,16 +4953,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22.09252109618844</v>
+        <v>1145.670920332099</v>
       </c>
       <c r="C11" t="n">
-        <v>22.09252109618844</v>
+        <v>1145.670920332099</v>
       </c>
       <c r="D11" t="n">
-        <v>22.09252109618844</v>
+        <v>1145.670920332099</v>
       </c>
       <c r="E11" t="n">
-        <v>22.09252109618844</v>
+        <v>1145.670920332099</v>
       </c>
       <c r="F11" t="n">
-        <v>22.09252109618844</v>
+        <v>734.6850155424913</v>
       </c>
       <c r="G11" t="n">
-        <v>22.09252109618844</v>
+        <v>372.2028083037058</v>
       </c>
       <c r="H11" t="n">
-        <v>22.09252109618844</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="I11" t="n">
-        <v>22.09252109618844</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="J11" t="n">
-        <v>22.09252109618846</v>
+        <v>94.76073252434969</v>
       </c>
       <c r="K11" t="n">
-        <v>142.8373253438684</v>
+        <v>300.9175062625694</v>
       </c>
       <c r="L11" t="n">
-        <v>344.9085595412869</v>
+        <v>608.9498412559813</v>
       </c>
       <c r="M11" t="n">
-        <v>586.3582880173957</v>
+        <v>968.3017108859924</v>
       </c>
       <c r="N11" t="n">
-        <v>817.0829279823544</v>
+        <v>1318.836271911617</v>
       </c>
       <c r="O11" t="n">
-        <v>989.7620250901066</v>
+        <v>1604.648480067583</v>
       </c>
       <c r="P11" t="n">
-        <v>1099.465256491931</v>
+        <v>1810.908204322028</v>
       </c>
       <c r="Q11" t="n">
-        <v>1104.626054809422</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="R11" t="n">
-        <v>1104.626054809422</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="S11" t="n">
-        <v>1104.626054809422</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="T11" t="n">
-        <v>1104.626054809422</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="U11" t="n">
-        <v>858.9304414063566</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="V11" t="n">
-        <v>579.9844679696339</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="W11" t="n">
-        <v>301.0384945329112</v>
+        <v>1535.810252307911</v>
       </c>
       <c r="X11" t="n">
-        <v>22.09252109618844</v>
+        <v>1535.810252307911</v>
       </c>
       <c r="Y11" t="n">
-        <v>22.09252109618844</v>
+        <v>1145.670920332099</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>728.6504190244</v>
+        <v>371.462062438143</v>
       </c>
       <c r="C12" t="n">
-        <v>554.197389743273</v>
+        <v>197.009033157016</v>
       </c>
       <c r="D12" t="n">
-        <v>405.2629800820217</v>
+        <v>197.009033157016</v>
       </c>
       <c r="E12" t="n">
-        <v>246.0255250765662</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="F12" t="n">
-        <v>99.4909671034512</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="G12" t="n">
-        <v>22.09252109618844</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="H12" t="n">
-        <v>22.09252109618844</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="I12" t="n">
-        <v>22.09252109618844</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="J12" t="n">
-        <v>22.09252109618844</v>
+        <v>78.02054839819853</v>
       </c>
       <c r="K12" t="n">
-        <v>159.4923828364511</v>
+        <v>273.4332924261728</v>
       </c>
       <c r="L12" t="n">
-        <v>405.6478494291521</v>
+        <v>524.2168923094114</v>
       </c>
       <c r="M12" t="n">
-        <v>562.3310704112777</v>
+        <v>954.476648321032</v>
       </c>
       <c r="N12" t="n">
-        <v>562.3310704112777</v>
+        <v>1411.831113183876</v>
       </c>
       <c r="O12" t="n">
-        <v>828.8278839945615</v>
+        <v>1763.805418834995</v>
       </c>
       <c r="P12" t="n">
-        <v>1025.71200399185</v>
+        <v>1763.805418834995</v>
       </c>
       <c r="Q12" t="n">
-        <v>1104.626054809422</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="R12" t="n">
-        <v>1104.626054809422</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="S12" t="n">
-        <v>1104.626054809422</v>
+        <v>1873.275581696842</v>
       </c>
       <c r="T12" t="n">
-        <v>1104.626054809422</v>
+        <v>1672.873160218688</v>
       </c>
       <c r="U12" t="n">
-        <v>1104.626054809422</v>
+        <v>1444.678663388642</v>
       </c>
       <c r="V12" t="n">
-        <v>1104.626054809422</v>
+        <v>1209.526555156899</v>
       </c>
       <c r="W12" t="n">
-        <v>1104.626054809422</v>
+        <v>955.2891984286978</v>
       </c>
       <c r="X12" t="n">
-        <v>1104.626054809422</v>
+        <v>747.4376982231649</v>
       </c>
       <c r="Y12" t="n">
-        <v>896.8657560444681</v>
+        <v>539.6773994582111</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>198.9927170031359</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="C13" t="n">
-        <v>198.9927170031359</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="D13" t="n">
-        <v>198.9927170031359</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="E13" t="n">
-        <v>198.9927170031359</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="F13" t="n">
-        <v>198.9927170031359</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="G13" t="n">
-        <v>198.9927170031359</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="H13" t="n">
-        <v>198.9927170031359</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="I13" t="n">
-        <v>43.89040469805406</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="J13" t="n">
-        <v>22.09252109618844</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="K13" t="n">
-        <v>22.09252109618844</v>
+        <v>57.98179126766708</v>
       </c>
       <c r="L13" t="n">
-        <v>58.70189726492715</v>
+        <v>139.3703405264043</v>
       </c>
       <c r="M13" t="n">
-        <v>107.6904745160687</v>
+        <v>235.5722772975926</v>
       </c>
       <c r="N13" t="n">
-        <v>160.9488293168851</v>
+        <v>334.9213634561164</v>
       </c>
       <c r="O13" t="n">
-        <v>194.1252445754623</v>
+        <v>410.6700291245809</v>
       </c>
       <c r="P13" t="n">
-        <v>198.9927170031359</v>
+        <v>451.9654163614352</v>
       </c>
       <c r="Q13" t="n">
-        <v>198.9927170031359</v>
+        <v>451.9654163614352</v>
       </c>
       <c r="R13" t="n">
-        <v>198.9927170031359</v>
+        <v>451.9654163614352</v>
       </c>
       <c r="S13" t="n">
-        <v>198.9927170031359</v>
+        <v>451.9654163614352</v>
       </c>
       <c r="T13" t="n">
-        <v>198.9927170031359</v>
+        <v>451.9654163614352</v>
       </c>
       <c r="U13" t="n">
-        <v>198.9927170031359</v>
+        <v>162.7745173806334</v>
       </c>
       <c r="V13" t="n">
-        <v>198.9927170031359</v>
+        <v>162.7745173806334</v>
       </c>
       <c r="W13" t="n">
-        <v>198.9927170031359</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="X13" t="n">
-        <v>198.9927170031359</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="Y13" t="n">
-        <v>198.9927170031359</v>
+        <v>37.7715781515605</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>546.7341079359765</v>
+        <v>988.5570948192358</v>
       </c>
       <c r="C14" t="n">
-        <v>301.0384945329112</v>
+        <v>988.5570948192358</v>
       </c>
       <c r="D14" t="n">
-        <v>301.0384945329112</v>
+        <v>988.5570948192358</v>
       </c>
       <c r="E14" t="n">
-        <v>22.09252109618844</v>
+        <v>867.427895235648</v>
       </c>
       <c r="F14" t="n">
-        <v>22.09252109618844</v>
+        <v>456.4419904460404</v>
       </c>
       <c r="G14" t="n">
-        <v>22.09252109618844</v>
+        <v>37.77157815156049</v>
       </c>
       <c r="H14" t="n">
-        <v>22.09252109618844</v>
+        <v>37.77157815156049</v>
       </c>
       <c r="I14" t="n">
-        <v>22.09252109618844</v>
+        <v>37.77157815156049</v>
       </c>
       <c r="J14" t="n">
-        <v>22.09252109618842</v>
+        <v>94.76073252434969</v>
       </c>
       <c r="K14" t="n">
-        <v>142.8373253438683</v>
+        <v>300.9175062625694</v>
       </c>
       <c r="L14" t="n">
-        <v>344.9085595412869</v>
+        <v>608.9498412559813</v>
       </c>
       <c r="M14" t="n">
-        <v>586.3582880173956</v>
+        <v>968.3017108859924</v>
       </c>
       <c r="N14" t="n">
-        <v>817.0829279823542</v>
+        <v>1318.836271911617</v>
       </c>
       <c r="O14" t="n">
-        <v>989.7620250901064</v>
+        <v>1604.648480067583</v>
       </c>
       <c r="P14" t="n">
-        <v>1099.465256491931</v>
+        <v>1810.908204322028</v>
       </c>
       <c r="Q14" t="n">
-        <v>1104.626054809422</v>
+        <v>1888.578907578024</v>
       </c>
       <c r="R14" t="n">
-        <v>1104.626054809422</v>
+        <v>1789.163992490916</v>
       </c>
       <c r="S14" t="n">
-        <v>1104.626054809422</v>
+        <v>1596.884761764693</v>
       </c>
       <c r="T14" t="n">
-        <v>1104.626054809422</v>
+        <v>1375.156934883358</v>
       </c>
       <c r="U14" t="n">
-        <v>1104.626054809422</v>
+        <v>1375.156934883358</v>
       </c>
       <c r="V14" t="n">
-        <v>1104.626054809422</v>
+        <v>1375.156934883358</v>
       </c>
       <c r="W14" t="n">
-        <v>1104.626054809422</v>
+        <v>1375.156934883358</v>
       </c>
       <c r="X14" t="n">
-        <v>1104.626054809422</v>
+        <v>1375.156934883358</v>
       </c>
       <c r="Y14" t="n">
-        <v>825.6800813726992</v>
+        <v>1375.156934883358</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>355.783005382771</v>
+        <v>666.9310300725093</v>
       </c>
       <c r="C15" t="n">
-        <v>181.329976101644</v>
+        <v>492.4780007913823</v>
       </c>
       <c r="D15" t="n">
-        <v>181.329976101644</v>
+        <v>343.543591130131</v>
       </c>
       <c r="E15" t="n">
-        <v>22.09252109618844</v>
+        <v>184.3061361246755</v>
       </c>
       <c r="F15" t="n">
-        <v>22.09252109618844</v>
+        <v>37.77157815156049</v>
       </c>
       <c r="G15" t="n">
-        <v>22.09252109618844</v>
+        <v>37.77157815156049</v>
       </c>
       <c r="H15" t="n">
-        <v>22.09252109618844</v>
+        <v>37.77157815156049</v>
       </c>
       <c r="I15" t="n">
-        <v>22.09252109618844</v>
+        <v>37.77157815156049</v>
       </c>
       <c r="J15" t="n">
-        <v>28.39914141318535</v>
+        <v>78.02054839819851</v>
       </c>
       <c r="K15" t="n">
-        <v>165.799003153448</v>
+        <v>273.4332924261728</v>
       </c>
       <c r="L15" t="n">
-        <v>411.954469746149</v>
+        <v>383.5030378418973</v>
       </c>
       <c r="M15" t="n">
-        <v>685.3494183114809</v>
+        <v>813.762793853518</v>
       </c>
       <c r="N15" t="n">
-        <v>828.8278839945615</v>
+        <v>1271.117258716362</v>
       </c>
       <c r="O15" t="n">
-        <v>828.8278839945615</v>
+        <v>1623.091564367481</v>
       </c>
       <c r="P15" t="n">
-        <v>1025.71200399185</v>
+        <v>1888.578907578024</v>
       </c>
       <c r="Q15" t="n">
-        <v>1104.626054809422</v>
+        <v>1888.578907578024</v>
       </c>
       <c r="R15" t="n">
-        <v>1104.626054809422</v>
+        <v>1888.578907578024</v>
       </c>
       <c r="S15" t="n">
-        <v>1104.626054809422</v>
+        <v>1888.578907578024</v>
       </c>
       <c r="T15" t="n">
-        <v>1104.626054809422</v>
+        <v>1714.104771124853</v>
       </c>
       <c r="U15" t="n">
-        <v>939.6101413733256</v>
+        <v>1485.910274294807</v>
       </c>
       <c r="V15" t="n">
-        <v>939.6101413733256</v>
+        <v>1250.758166063064</v>
       </c>
       <c r="W15" t="n">
-        <v>939.6101413733256</v>
+        <v>1250.758166063064</v>
       </c>
       <c r="X15" t="n">
-        <v>731.7586411677928</v>
+        <v>1042.906665857531</v>
       </c>
       <c r="Y15" t="n">
-        <v>523.9983424028389</v>
+        <v>835.1463670925773</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22.09252109618844</v>
+        <v>37.77157815156049</v>
       </c>
       <c r="C16" t="n">
-        <v>22.09252109618844</v>
+        <v>37.77157815156049</v>
       </c>
       <c r="D16" t="n">
-        <v>22.09252109618844</v>
+        <v>37.77157815156049</v>
       </c>
       <c r="E16" t="n">
-        <v>22.09252109618844</v>
+        <v>37.77157815156049</v>
       </c>
       <c r="F16" t="n">
-        <v>22.09252109618844</v>
+        <v>37.77157815156049</v>
       </c>
       <c r="G16" t="n">
-        <v>22.09252109618844</v>
+        <v>37.77157815156049</v>
       </c>
       <c r="H16" t="n">
-        <v>22.09252109618844</v>
+        <v>37.77157815156049</v>
       </c>
       <c r="I16" t="n">
-        <v>22.09252109618844</v>
+        <v>37.77157815156049</v>
       </c>
       <c r="J16" t="n">
-        <v>22.09252109618844</v>
+        <v>37.77157815156049</v>
       </c>
       <c r="K16" t="n">
-        <v>22.09252109618844</v>
+        <v>57.98179126766707</v>
       </c>
       <c r="L16" t="n">
-        <v>58.70189726492715</v>
+        <v>139.3703405264043</v>
       </c>
       <c r="M16" t="n">
-        <v>107.6904745160687</v>
+        <v>235.5722772975926</v>
       </c>
       <c r="N16" t="n">
-        <v>160.9488293168851</v>
+        <v>334.9213634561164</v>
       </c>
       <c r="O16" t="n">
-        <v>194.1252445754623</v>
+        <v>410.6700291245809</v>
       </c>
       <c r="P16" t="n">
-        <v>198.9927170031359</v>
+        <v>451.9654163614352</v>
       </c>
       <c r="Q16" t="n">
-        <v>198.3084793424303</v>
+        <v>451.9654163614352</v>
       </c>
       <c r="R16" t="n">
-        <v>22.09252109618844</v>
+        <v>451.9654163614352</v>
       </c>
       <c r="S16" t="n">
-        <v>22.09252109618844</v>
+        <v>451.9654163614352</v>
       </c>
       <c r="T16" t="n">
-        <v>22.09252109618844</v>
+        <v>451.9654163614352</v>
       </c>
       <c r="U16" t="n">
-        <v>22.09252109618844</v>
+        <v>162.7745173806334</v>
       </c>
       <c r="V16" t="n">
-        <v>22.09252109618844</v>
+        <v>162.7745173806334</v>
       </c>
       <c r="W16" t="n">
-        <v>22.09252109618844</v>
+        <v>37.77157815156049</v>
       </c>
       <c r="X16" t="n">
-        <v>22.09252109618844</v>
+        <v>37.77157815156049</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.09252109618844</v>
+        <v>37.77157815156049</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2478.204137726017</v>
+        <v>1048.135229378342</v>
       </c>
       <c r="C17" t="n">
-        <v>2109.241620785605</v>
+        <v>1048.135229378342</v>
       </c>
       <c r="D17" t="n">
-        <v>1750.975922178855</v>
+        <v>1048.135229378342</v>
       </c>
       <c r="E17" t="n">
-        <v>1365.187669580611</v>
+        <v>1048.135229378342</v>
       </c>
       <c r="F17" t="n">
-        <v>954.2017647910031</v>
+        <v>637.1493245887348</v>
       </c>
       <c r="G17" t="n">
-        <v>536.1772201330984</v>
+        <v>218.4789122942549</v>
       </c>
       <c r="H17" t="n">
-        <v>208.3604819140282</v>
+        <v>218.4789122942549</v>
       </c>
       <c r="I17" t="n">
-        <v>52.55295983039682</v>
+        <v>37.77157815156049</v>
       </c>
       <c r="J17" t="n">
-        <v>163.2684600773916</v>
+        <v>94.76073252434981</v>
       </c>
       <c r="K17" t="n">
-        <v>449.9470991626235</v>
+        <v>300.9175062625695</v>
       </c>
       <c r="L17" t="n">
-        <v>857.8739283493956</v>
+        <v>608.9498412559815</v>
       </c>
       <c r="M17" t="n">
-        <v>1328.377670377929</v>
+        <v>968.3017108859925</v>
       </c>
       <c r="N17" t="n">
-        <v>1791.86265730319</v>
+        <v>1318.836271911617</v>
       </c>
       <c r="O17" t="n">
-        <v>2184.330749739189</v>
+        <v>1604.648480067583</v>
       </c>
       <c r="P17" t="n">
-        <v>2481.618803655551</v>
+        <v>1810.908204322028</v>
       </c>
       <c r="Q17" t="n">
-        <v>2627.647991519841</v>
+        <v>1888.578907578024</v>
       </c>
       <c r="R17" t="n">
-        <v>2627.647991519841</v>
+        <v>1888.578907578024</v>
       </c>
       <c r="S17" t="n">
-        <v>2627.647991519841</v>
+        <v>1696.299676851801</v>
       </c>
       <c r="T17" t="n">
-        <v>2627.647991519841</v>
+        <v>1474.571849970466</v>
       </c>
       <c r="U17" t="n">
-        <v>2627.647991519841</v>
+        <v>1474.571849970466</v>
       </c>
       <c r="V17" t="n">
-        <v>2627.647991519841</v>
+        <v>1400.903884648456</v>
       </c>
       <c r="W17" t="n">
-        <v>2627.647991519841</v>
+        <v>1048.135229378342</v>
       </c>
       <c r="X17" t="n">
-        <v>2627.647991519841</v>
+        <v>1048.135229378342</v>
       </c>
       <c r="Y17" t="n">
-        <v>2627.647991519841</v>
+        <v>1048.135229378342</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>916.2424764811126</v>
+        <v>313.0787264419214</v>
       </c>
       <c r="C18" t="n">
-        <v>741.7894471999856</v>
+        <v>176.0597577787575</v>
       </c>
       <c r="D18" t="n">
-        <v>592.8550375387343</v>
+        <v>176.0597577787575</v>
       </c>
       <c r="E18" t="n">
-        <v>433.6175825332788</v>
+        <v>176.0597577787575</v>
       </c>
       <c r="F18" t="n">
-        <v>359.4137134232386</v>
+        <v>176.0597577787575</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4711034470639</v>
+        <v>37.77157815156049</v>
       </c>
       <c r="H18" t="n">
-        <v>115.7144696158003</v>
+        <v>37.77157815156049</v>
       </c>
       <c r="I18" t="n">
-        <v>52.55295983039682</v>
+        <v>37.77157815156049</v>
       </c>
       <c r="J18" t="n">
-        <v>124.8009736173955</v>
+        <v>78.02054839819851</v>
       </c>
       <c r="K18" t="n">
-        <v>374.9051797885135</v>
+        <v>273.4332924261728</v>
       </c>
       <c r="L18" t="n">
-        <v>772.605546048474</v>
+        <v>597.5942384890415</v>
       </c>
       <c r="M18" t="n">
-        <v>1288.682336799737</v>
+        <v>1027.853994500662</v>
       </c>
       <c r="N18" t="n">
-        <v>1696.919903922446</v>
+        <v>1485.208459363506</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.477846124048</v>
+        <v>1763.805418834995</v>
       </c>
       <c r="P18" t="n">
-        <v>2459.640662045246</v>
+        <v>1763.805418834995</v>
       </c>
       <c r="Q18" t="n">
-        <v>2627.647991519841</v>
+        <v>1888.578907578024</v>
       </c>
       <c r="R18" t="n">
-        <v>2575.416961133099</v>
+        <v>1814.89224570062</v>
       </c>
       <c r="S18" t="n">
-        <v>2416.640372695711</v>
+        <v>1814.89224570062</v>
       </c>
       <c r="T18" t="n">
-        <v>2217.630839416196</v>
+        <v>1614.489824222466</v>
       </c>
       <c r="U18" t="n">
-        <v>1989.459077431612</v>
+        <v>1386.29532739242</v>
       </c>
       <c r="V18" t="n">
-        <v>1754.306969199869</v>
+        <v>1151.143219160678</v>
       </c>
       <c r="W18" t="n">
-        <v>1500.069612471667</v>
+        <v>896.9058624324762</v>
       </c>
       <c r="X18" t="n">
-        <v>1292.218112266135</v>
+        <v>689.0543622269433</v>
       </c>
       <c r="Y18" t="n">
-        <v>1084.457813501181</v>
+        <v>481.2940634619894</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>415.2160948486073</v>
+        <v>162.5482463244743</v>
       </c>
       <c r="C19" t="n">
-        <v>415.2160948486073</v>
+        <v>162.5482463244743</v>
       </c>
       <c r="D19" t="n">
-        <v>347.3560009107003</v>
+        <v>162.5482463244743</v>
       </c>
       <c r="E19" t="n">
-        <v>199.4429073283072</v>
+        <v>162.5482463244743</v>
       </c>
       <c r="F19" t="n">
-        <v>52.55295983039682</v>
+        <v>37.77157815156049</v>
       </c>
       <c r="G19" t="n">
-        <v>52.55295983039682</v>
+        <v>37.77157815156049</v>
       </c>
       <c r="H19" t="n">
-        <v>52.55295983039682</v>
+        <v>37.77157815156049</v>
       </c>
       <c r="I19" t="n">
-        <v>52.55295983039682</v>
+        <v>37.77157815156049</v>
       </c>
       <c r="J19" t="n">
-        <v>52.55295983039682</v>
+        <v>37.77157815156049</v>
       </c>
       <c r="K19" t="n">
-        <v>105.752846701132</v>
+        <v>57.98179126766705</v>
       </c>
       <c r="L19" t="n">
-        <v>229.3568204186483</v>
+        <v>139.3703405264043</v>
       </c>
       <c r="M19" t="n">
-        <v>370.0690032423453</v>
+        <v>235.5722772975925</v>
       </c>
       <c r="N19" t="n">
-        <v>512.8699812875407</v>
+        <v>334.9213634561163</v>
       </c>
       <c r="O19" t="n">
-        <v>628.753502005846</v>
+        <v>410.6700291245808</v>
       </c>
       <c r="P19" t="n">
-        <v>704.3911912483011</v>
+        <v>451.965416361435</v>
       </c>
       <c r="Q19" t="n">
-        <v>704.3911912483011</v>
+        <v>451.965416361435</v>
       </c>
       <c r="R19" t="n">
-        <v>704.3911912483011</v>
+        <v>451.965416361435</v>
       </c>
       <c r="S19" t="n">
-        <v>704.3911912483011</v>
+        <v>451.965416361435</v>
       </c>
       <c r="T19" t="n">
-        <v>704.3911912483011</v>
+        <v>451.965416361435</v>
       </c>
       <c r="U19" t="n">
-        <v>415.2160948486073</v>
+        <v>451.965416361435</v>
       </c>
       <c r="V19" t="n">
-        <v>415.2160948486073</v>
+        <v>451.965416361435</v>
       </c>
       <c r="W19" t="n">
-        <v>415.2160948486073</v>
+        <v>162.5482463244743</v>
       </c>
       <c r="X19" t="n">
-        <v>415.2160948486073</v>
+        <v>162.5482463244743</v>
       </c>
       <c r="Y19" t="n">
-        <v>415.2160948486073</v>
+        <v>162.5482463244743</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1290.927989671754</v>
+        <v>1375.156934883358</v>
       </c>
       <c r="C20" t="n">
-        <v>921.9654727313427</v>
+        <v>1200.495941651035</v>
       </c>
       <c r="D20" t="n">
-        <v>921.9654727313427</v>
+        <v>842.2302430442846</v>
       </c>
       <c r="E20" t="n">
-        <v>536.1772201330984</v>
+        <v>456.4419904460404</v>
       </c>
       <c r="F20" t="n">
-        <v>536.1772201330984</v>
+        <v>456.4419904460404</v>
       </c>
       <c r="G20" t="n">
-        <v>536.1772201330984</v>
+        <v>37.77157815156049</v>
       </c>
       <c r="H20" t="n">
-        <v>208.3604819140282</v>
+        <v>37.77157815156049</v>
       </c>
       <c r="I20" t="n">
-        <v>52.55295983039682</v>
+        <v>37.77157815156049</v>
       </c>
       <c r="J20" t="n">
-        <v>163.2684600773916</v>
+        <v>94.76073252434975</v>
       </c>
       <c r="K20" t="n">
-        <v>449.9470991626235</v>
+        <v>300.9175062625693</v>
       </c>
       <c r="L20" t="n">
-        <v>857.8739283493956</v>
+        <v>608.949841255981</v>
       </c>
       <c r="M20" t="n">
-        <v>1328.377670377929</v>
+        <v>968.3017108859923</v>
       </c>
       <c r="N20" t="n">
-        <v>1791.86265730319</v>
+        <v>1318.836271911617</v>
       </c>
       <c r="O20" t="n">
-        <v>2184.330749739189</v>
+        <v>1604.648480067583</v>
       </c>
       <c r="P20" t="n">
-        <v>2481.618803655551</v>
+        <v>1810.908204322028</v>
       </c>
       <c r="Q20" t="n">
-        <v>2627.647991519841</v>
+        <v>1888.578907578024</v>
       </c>
       <c r="R20" t="n">
-        <v>2568.804059358746</v>
+        <v>1789.163992490916</v>
       </c>
       <c r="S20" t="n">
-        <v>2391.242537400979</v>
+        <v>1596.884761764693</v>
       </c>
       <c r="T20" t="n">
-        <v>2172.34199609875</v>
+        <v>1375.156934883358</v>
       </c>
       <c r="U20" t="n">
-        <v>2172.34199609875</v>
+        <v>1375.156934883358</v>
       </c>
       <c r="V20" t="n">
-        <v>2172.34199609875</v>
+        <v>1375.156934883358</v>
       </c>
       <c r="W20" t="n">
-        <v>2172.34199609875</v>
+        <v>1375.156934883358</v>
       </c>
       <c r="X20" t="n">
-        <v>2067.667161711688</v>
+        <v>1375.156934883358</v>
       </c>
       <c r="Y20" t="n">
-        <v>1677.527829735876</v>
+        <v>1375.156934883358</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.5731653441875</v>
+        <v>361.1590170939388</v>
       </c>
       <c r="C21" t="n">
-        <v>814.1201360630605</v>
+        <v>186.7059878128118</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1857264018092</v>
+        <v>37.77157815156049</v>
       </c>
       <c r="E21" t="n">
-        <v>505.9482713963537</v>
+        <v>37.77157815156049</v>
       </c>
       <c r="F21" t="n">
-        <v>359.4137134232386</v>
+        <v>37.77157815156049</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4711034470639</v>
+        <v>37.77157815156049</v>
       </c>
       <c r="H21" t="n">
-        <v>115.7144696158003</v>
+        <v>37.77157815156049</v>
       </c>
       <c r="I21" t="n">
-        <v>52.55295983039682</v>
+        <v>37.77157815156049</v>
       </c>
       <c r="J21" t="n">
-        <v>124.8009736173955</v>
+        <v>37.77157815156049</v>
       </c>
       <c r="K21" t="n">
-        <v>374.9051797885135</v>
+        <v>59.34209177902881</v>
       </c>
       <c r="L21" t="n">
-        <v>772.605546048474</v>
+        <v>383.5030378418975</v>
       </c>
       <c r="M21" t="n">
-        <v>1288.682336799737</v>
+        <v>813.7627938535182</v>
       </c>
       <c r="N21" t="n">
-        <v>1834.125157955225</v>
+        <v>1271.117258716362</v>
       </c>
       <c r="O21" t="n">
-        <v>2266.683100156827</v>
+        <v>1623.091564367481</v>
       </c>
       <c r="P21" t="n">
-        <v>2596.845916078025</v>
+        <v>1888.578907578024</v>
       </c>
       <c r="Q21" t="n">
-        <v>2627.647991519841</v>
+        <v>1888.578907578024</v>
       </c>
       <c r="R21" t="n">
-        <v>2627.647991519841</v>
+        <v>1888.578907578024</v>
       </c>
       <c r="S21" t="n">
-        <v>2468.871403082454</v>
+        <v>1723.383514438535</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.961528279271</v>
+        <v>1662.570114874484</v>
       </c>
       <c r="U21" t="n">
-        <v>2061.789766294687</v>
+        <v>1434.375618044438</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.637658062944</v>
+        <v>1199.223509812695</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.400301334742</v>
+        <v>944.9861530844935</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.548801129209</v>
+        <v>737.1346528789607</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.788502364255</v>
+        <v>529.3743541140068</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>369.4022363406968</v>
+        <v>207.0883367283403</v>
       </c>
       <c r="C22" t="n">
-        <v>200.4660534127899</v>
+        <v>207.0883367283403</v>
       </c>
       <c r="D22" t="n">
-        <v>200.4660534127899</v>
+        <v>207.0883367283403</v>
       </c>
       <c r="E22" t="n">
-        <v>52.55295983039682</v>
+        <v>207.0883367283403</v>
       </c>
       <c r="F22" t="n">
-        <v>52.55295983039682</v>
+        <v>207.0883367283403</v>
       </c>
       <c r="G22" t="n">
-        <v>52.55295983039682</v>
+        <v>37.77157815156049</v>
       </c>
       <c r="H22" t="n">
-        <v>52.55295983039682</v>
+        <v>37.77157815156049</v>
       </c>
       <c r="I22" t="n">
-        <v>52.55295983039682</v>
+        <v>37.77157815156049</v>
       </c>
       <c r="J22" t="n">
-        <v>52.55295983039682</v>
+        <v>37.77157815156049</v>
       </c>
       <c r="K22" t="n">
-        <v>105.752846701132</v>
+        <v>57.98179126766706</v>
       </c>
       <c r="L22" t="n">
-        <v>229.3568204186483</v>
+        <v>139.3703405264043</v>
       </c>
       <c r="M22" t="n">
-        <v>370.0690032423453</v>
+        <v>235.5722772975926</v>
       </c>
       <c r="N22" t="n">
-        <v>512.8699812875407</v>
+        <v>334.9213634561163</v>
       </c>
       <c r="O22" t="n">
-        <v>628.753502005846</v>
+        <v>410.6700291245808</v>
       </c>
       <c r="P22" t="n">
-        <v>704.3911912483011</v>
+        <v>451.965416361435</v>
       </c>
       <c r="Q22" t="n">
-        <v>704.3911912483011</v>
+        <v>451.965416361435</v>
       </c>
       <c r="R22" t="n">
-        <v>704.3911912483011</v>
+        <v>451.965416361435</v>
       </c>
       <c r="S22" t="n">
-        <v>704.3911912483011</v>
+        <v>232.1532741789608</v>
       </c>
       <c r="T22" t="n">
-        <v>704.3911912483011</v>
+        <v>207.0883367283403</v>
       </c>
       <c r="U22" t="n">
-        <v>704.3911912483011</v>
+        <v>207.0883367283403</v>
       </c>
       <c r="V22" t="n">
-        <v>704.3911912483011</v>
+        <v>207.0883367283403</v>
       </c>
       <c r="W22" t="n">
-        <v>704.3911912483011</v>
+        <v>207.0883367283403</v>
       </c>
       <c r="X22" t="n">
-        <v>704.3911912483011</v>
+        <v>207.0883367283403</v>
       </c>
       <c r="Y22" t="n">
-        <v>551.0507011709366</v>
+        <v>207.0883367283403</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>439.7312344186087</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="C23" t="n">
-        <v>439.7312344186087</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D23" t="n">
-        <v>439.7312344186087</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E23" t="n">
-        <v>53.94298182036445</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036445</v>
@@ -5989,19 +5989,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T23" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U23" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V23" t="n">
-        <v>1662.48357412947</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W23" t="n">
-        <v>1309.714918859356</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X23" t="n">
-        <v>936.2491605982757</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="Y23" t="n">
-        <v>546.109828622464</v>
+        <v>2048.575150942547</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
@@ -6080,13 +6080,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6098,13 +6098,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2191.89927156006</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632153</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018222</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="U25" t="n">
-        <v>2697.149091018222</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="V25" t="n">
-        <v>2697.149091018222</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="W25" t="n">
-        <v>2419.888822458077</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="X25" t="n">
-        <v>2191.89927156006</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="Y25" t="n">
-        <v>2191.89927156006</v>
+        <v>699.3942879925752</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1563.476704221264</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="C26" t="n">
-        <v>1563.476704221264</v>
+        <v>1171.95857907428</v>
       </c>
       <c r="D26" t="n">
-        <v>1563.476704221264</v>
+        <v>813.6928804675292</v>
       </c>
       <c r="E26" t="n">
-        <v>1177.688451623019</v>
+        <v>813.6928804675292</v>
       </c>
       <c r="F26" t="n">
-        <v>766.7025468334118</v>
+        <v>813.6928804675292</v>
       </c>
       <c r="G26" t="n">
-        <v>534.603677789272</v>
+        <v>395.7290723657161</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>68.53435240171893</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U26" t="n">
-        <v>2247.308246834948</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V26" t="n">
-        <v>1916.245359491378</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W26" t="n">
-        <v>1563.476704221264</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="X26" t="n">
-        <v>1563.476704221264</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="Y26" t="n">
-        <v>1563.476704221264</v>
+        <v>1540.921096014691</v>
       </c>
     </row>
     <row r="27">
@@ -6302,46 +6302,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2349.647644127529</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="C28" t="n">
-        <v>2180.711461199623</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D28" t="n">
-        <v>2180.711461199623</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E28" t="n">
-        <v>2180.711461199623</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F28" t="n">
-        <v>2180.711461199623</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G28" t="n">
-        <v>2180.711461199623</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>2349.647644127529</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>2349.647644127529</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>2349.647644127529</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>2349.647644127529</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>2349.647644127529</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X28" t="n">
-        <v>2349.647644127529</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y28" t="n">
-        <v>2349.647644127529</v>
+        <v>217.9192350259435</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1689.643533783874</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="C29" t="n">
-        <v>1689.643533783874</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="D29" t="n">
-        <v>1331.377835177124</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="E29" t="n">
-        <v>945.5895825788796</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F29" t="n">
-        <v>534.603677789272</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G29" t="n">
         <v>534.603677789272</v>
@@ -6463,19 +6463,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U29" t="n">
-        <v>2247.308246834948</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V29" t="n">
-        <v>2247.308246834948</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W29" t="n">
-        <v>1894.539591564834</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X29" t="n">
-        <v>1894.539591564834</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y29" t="n">
-        <v>1894.539591564834</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
@@ -6545,7 +6545,7 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
         <v>670.8219208598708</v>
@@ -6566,25 +6566,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>70.00614144355038</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>70.00614144355038</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>70.00614144355038</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
         <v>53.94298182036445</v>
@@ -6651,22 +6651,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W31" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X31" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y31" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1363.553390680693</v>
+        <v>1658.435818966735</v>
       </c>
       <c r="C32" t="n">
-        <v>1363.553390680693</v>
+        <v>1658.435818966735</v>
       </c>
       <c r="D32" t="n">
         <v>1363.553390680693</v>
@@ -6706,13 +6706,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6727,25 +6727,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U32" t="n">
-        <v>2479.927136187699</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V32" t="n">
-        <v>2479.927136187699</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W32" t="n">
-        <v>2127.158480917584</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X32" t="n">
-        <v>1753.692722656504</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="Y32" t="n">
-        <v>1363.553390680693</v>
+        <v>1658.435818966735</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
@@ -6788,16 +6788,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6806,16 +6806,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2697.149091018222</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C34" t="n">
-        <v>2528.212908090316</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D34" t="n">
-        <v>2378.09626867798</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="E34" t="n">
-        <v>2230.183175095587</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="F34" t="n">
-        <v>2083.293227597676</v>
+        <v>291.8218666715633</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>291.8218666715633</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W34" t="n">
-        <v>2697.149091018222</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X34" t="n">
-        <v>2697.149091018222</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y34" t="n">
-        <v>2697.149091018222</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1494.154169929768</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C35" t="n">
-        <v>1125.191652989356</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D35" t="n">
-        <v>766.9259543826058</v>
+        <v>951.4492202526051</v>
       </c>
       <c r="E35" t="n">
-        <v>381.1377017843616</v>
+        <v>951.4492202526051</v>
       </c>
       <c r="F35" t="n">
-        <v>381.1377017843616</v>
+        <v>951.4492202526051</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
         <v>881.2824271224076</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2568.125044519265</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2568.125044519265</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U35" t="n">
-        <v>2568.125044519265</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V35" t="n">
-        <v>2237.062157175694</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W35" t="n">
-        <v>1884.29350190558</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X35" t="n">
-        <v>1884.29350190558</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y35" t="n">
-        <v>1494.154169929768</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
@@ -7019,7 +7019,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L36" t="n">
         <v>670.8219208598708</v>
@@ -7043,22 +7043,22 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2022.963088632153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>2549.002432452407</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V37" t="n">
-        <v>2549.002432452407</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W37" t="n">
-        <v>2549.002432452407</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X37" t="n">
-        <v>2425.404132605923</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y37" t="n">
-        <v>2204.611553462393</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1749.341643278937</v>
+        <v>1219.679656148628</v>
       </c>
       <c r="C38" t="n">
-        <v>1749.341643278937</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="D38" t="n">
-        <v>1749.341643278937</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E38" t="n">
-        <v>1363.553390680693</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F38" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2465.942913862885</v>
+        <v>2623.64637181155</v>
       </c>
       <c r="U38" t="n">
-        <v>2465.942913862885</v>
+        <v>2369.884586449641</v>
       </c>
       <c r="V38" t="n">
-        <v>2134.880026519314</v>
+        <v>2369.884586449641</v>
       </c>
       <c r="W38" t="n">
-        <v>1782.1113712492</v>
+        <v>2369.884586449641</v>
       </c>
       <c r="X38" t="n">
-        <v>1782.1113712492</v>
+        <v>1996.418828188561</v>
       </c>
       <c r="Y38" t="n">
-        <v>1749.341643278937</v>
+        <v>1606.27949621275</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7292,10 +7292,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2169.853036130063</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C40" t="n">
-        <v>2169.853036130063</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D40" t="n">
-        <v>2169.853036130063</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E40" t="n">
-        <v>2169.853036130063</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F40" t="n">
-        <v>2022.963088632152</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.149091018222</v>
+        <v>659.249899616903</v>
       </c>
       <c r="T40" t="n">
-        <v>2697.149091018222</v>
+        <v>659.249899616903</v>
       </c>
       <c r="U40" t="n">
-        <v>2697.149091018222</v>
+        <v>659.249899616903</v>
       </c>
       <c r="V40" t="n">
-        <v>2697.149091018222</v>
+        <v>659.249899616903</v>
       </c>
       <c r="W40" t="n">
-        <v>2579.49105185832</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="X40" t="n">
-        <v>2351.501500960303</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="Y40" t="n">
-        <v>2351.501500960303</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2476.569858826099</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="C41" t="n">
-        <v>2107.607341885688</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="D41" t="n">
-        <v>1749.341643278937</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E41" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F41" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G41" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H41" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018222</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X41" t="n">
-        <v>2697.149091018222</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="Y41" t="n">
-        <v>2697.149091018222</v>
+        <v>1309.714918859355</v>
       </c>
     </row>
     <row r="42">
@@ -7466,55 +7466,55 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E42" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
         <v>2488.762748073963</v>
@@ -7529,10 +7529,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7596,25 +7596,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>513.8405610245969</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="T43" t="n">
-        <v>513.8405610245969</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U43" t="n">
-        <v>513.8405610245969</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V43" t="n">
-        <v>513.8405610245969</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W43" t="n">
-        <v>224.4233909876363</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1293.97790721073</v>
+        <v>1097.103316533935</v>
       </c>
       <c r="C44" t="n">
-        <v>1293.97790721073</v>
+        <v>1097.103316533935</v>
       </c>
       <c r="D44" t="n">
-        <v>1293.97790721073</v>
+        <v>1097.103316533935</v>
       </c>
       <c r="E44" t="n">
-        <v>908.1896546124858</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F44" t="n">
-        <v>497.2037498228783</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>79.23994172106512</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H44" t="n">
         <v>53.94298182036444</v>
@@ -7675,25 +7675,25 @@
         <v>2642.120401548715</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T44" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U44" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V44" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W44" t="n">
-        <v>2070.717079250664</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X44" t="n">
-        <v>2070.717079250664</v>
+        <v>1873.842488573868</v>
       </c>
       <c r="Y44" t="n">
-        <v>1680.577747274852</v>
+        <v>1483.703156598056</v>
       </c>
     </row>
     <row r="45">
@@ -7733,25 +7733,25 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
         <v>2488.762748073964</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>257.3069090307624</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="C46" t="n">
-        <v>257.3069090307624</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="D46" t="n">
-        <v>257.3069090307624</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="E46" t="n">
-        <v>257.3069090307624</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="F46" t="n">
-        <v>257.3069090307624</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="G46" t="n">
-        <v>88.30710876909484</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H46" t="n">
-        <v>88.30710876909484</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I46" t="n">
         <v>53.94298182036444</v>
@@ -7839,19 +7839,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V46" t="n">
-        <v>438.9553738610022</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W46" t="n">
-        <v>438.9553738610022</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X46" t="n">
-        <v>438.9553738610022</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y46" t="n">
-        <v>438.9553738610022</v>
+        <v>184.0273259635867</v>
       </c>
     </row>
   </sheetData>
@@ -8066,16 +8066,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8297,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8309,7 +8309,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
@@ -8537,22 +8537,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,25 +8768,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>296.7218138088832</v>
       </c>
       <c r="M12" t="n">
-        <v>281.3133266100198</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>111.7499598249992</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>50.29373509393417</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9011,22 +9011,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>154.5866072760407</v>
       </c>
       <c r="M15" t="n">
-        <v>399.2039605324505</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>256.6777029392221</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>124.6736186875539</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>84.04346072268817</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9254,13 +9254,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>340.7512086538781</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>319.7437877821534</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>50.29373509393422</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>85.43550983875426</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>88.86702448681496</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>71.48612204617359</v>
+        <v>84.0434607226882</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050811</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9968,7 +9968,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>350.4438349360586</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10193,10 +10193,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10436,7 +10436,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,10 +10667,10 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L36" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10901,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>346.2692436516219</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11156,10 +11156,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>251.4045252050812</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22549,16 +22549,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22567,10 +22567,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22603,7 +22603,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22634,22 +22634,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>48.88290109347838</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>30.75538360350822</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22691,7 +22691,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22795,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22828,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>148.0596218681135</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22849,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22862,16 +22862,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>39.0822118509501</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22998,7 +22998,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23026,19 +23026,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23068,13 +23068,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23102,25 +23102,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23156,19 +23156,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>415.1619485273195</v>
+        <v>55.62632300513735</v>
       </c>
       <c r="H11" t="n">
-        <v>338.0329468943008</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>205.0481221176458</v>
+        <v>178.9002608012674</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>141.0252816852793</v>
+        <v>98.42076593623702</v>
       </c>
       <c r="S11" t="n">
-        <v>205.8118405263978</v>
+        <v>190.3564384189606</v>
       </c>
       <c r="T11" t="n">
-        <v>222.4795457699687</v>
+        <v>219.5105486125224</v>
       </c>
       <c r="U11" t="n">
-        <v>8.095732519776618</v>
+        <v>251.2801305603485</v>
       </c>
       <c r="V11" t="n">
-        <v>51.59574476777942</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>73.08445501505753</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>93.57458697611355</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23342,22 +23342,22 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>60.64372686654916</v>
+        <v>136.905297830925</v>
       </c>
       <c r="H12" t="n">
-        <v>111.5079271034444</v>
+        <v>108.0031680536329</v>
       </c>
       <c r="I12" t="n">
-        <v>86.80307722268739</v>
+        <v>74.3088181214066</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>95.48084390037957</v>
+        <v>72.94979525863039</v>
       </c>
       <c r="S12" t="n">
-        <v>170.2839726213331</v>
+        <v>148.3931465857233</v>
       </c>
       <c r="T12" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23430,19 +23430,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9278262653587</v>
+        <v>167.623590991012</v>
       </c>
       <c r="H13" t="n">
-        <v>161.6656840978772</v>
+        <v>158.9607559314126</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>144.4021047498582</v>
       </c>
       <c r="J13" t="n">
-        <v>67.31435166865143</v>
+        <v>67.38482253818421</v>
       </c>
       <c r="K13" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.87383288310646</v>
+        <v>55.3982773193994</v>
       </c>
       <c r="R13" t="n">
-        <v>174.4537986637794</v>
+        <v>160.7742744190617</v>
       </c>
       <c r="S13" t="n">
-        <v>222.9160118599466</v>
+        <v>217.6140207606494</v>
       </c>
       <c r="T13" t="n">
-        <v>227.6757534850358</v>
+        <v>226.3758391310088</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3155846423218</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>162.7700884998089</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>106.5773279611251</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>122.0342345019729</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>105.7738563699063</v>
+        <v>262.0124624845099</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>415.1619485273195</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>338.0329468943008</v>
+        <v>331.0869178506238</v>
       </c>
       <c r="I14" t="n">
-        <v>205.0481221176458</v>
+        <v>178.9002608012674</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3343897888113</v>
+        <v>251.2801305603485</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>110.0814249536981</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23579,22 +23579,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.2681884137393</v>
+        <v>136.905297830925</v>
       </c>
       <c r="H15" t="n">
-        <v>111.5079271034444</v>
+        <v>108.0031680536329</v>
       </c>
       <c r="I15" t="n">
-        <v>86.80307722268739</v>
+        <v>74.3088181214066</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>95.48084390037957</v>
+        <v>72.94979525863039</v>
       </c>
       <c r="S15" t="n">
-        <v>170.2839726213331</v>
+        <v>163.5434392080944</v>
       </c>
       <c r="T15" t="n">
-        <v>199.8611009721718</v>
+        <v>25.66900217473201</v>
       </c>
       <c r="U15" t="n">
-        <v>62.57067194045848</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23667,19 +23667,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9278262653587</v>
+        <v>167.623590991012</v>
       </c>
       <c r="H16" t="n">
-        <v>161.6656840978772</v>
+        <v>158.9607559314126</v>
       </c>
       <c r="I16" t="n">
-        <v>153.551289182031</v>
+        <v>144.4021047498582</v>
       </c>
       <c r="J16" t="n">
-        <v>88.89425643449839</v>
+        <v>67.38482253818421</v>
       </c>
       <c r="K16" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.19643759900796</v>
+        <v>55.3982773193994</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>160.7742744190617</v>
       </c>
       <c r="S16" t="n">
-        <v>222.9160118599466</v>
+        <v>217.6140207606494</v>
       </c>
       <c r="T16" t="n">
-        <v>227.6757534850358</v>
+        <v>226.3758391310088</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3155846423218</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>162.7700884998089</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>234.7844264075948</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>331.0869178506238</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23779,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>58.25549283948423</v>
+        <v>98.42076593623705</v>
       </c>
       <c r="S17" t="n">
-        <v>175.7859067381893</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.7115358892058</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2289778435317</v>
+        <v>251.2801305603485</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>254.8209728013458</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23813,25 +23813,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>37.0597200117835</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>71.60738197444407</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>108.0031680536329</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>74.3088181214066</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>163.5434392080944</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23895,25 +23895,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>81.43398001968445</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>21.89214653174653</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3367741439016</v>
+        <v>167.623590991012</v>
       </c>
       <c r="H19" t="n">
-        <v>156.4106934180136</v>
+        <v>158.9607559314126</v>
       </c>
       <c r="I19" t="n">
-        <v>135.7767399294862</v>
+        <v>144.4021047498582</v>
       </c>
       <c r="J19" t="n">
-        <v>47.10687144748485</v>
+        <v>67.38482253818422</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,25 +23934,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.38127751273463</v>
+        <v>55.39827731939941</v>
       </c>
       <c r="R19" t="n">
-        <v>147.8779460026287</v>
+        <v>160.7742744190617</v>
       </c>
       <c r="S19" t="n">
-        <v>212.6155853432815</v>
+        <v>217.6140207606495</v>
       </c>
       <c r="T19" t="n">
-        <v>225.1503489660829</v>
+        <v>226.3758391310088</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2989899909938</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>192.3585084710083</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.8442992113257</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>331.0869178506238</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>178.9002608012675</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2289778435317</v>
+        <v>251.2801305603485</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24034,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>266.1030146352774</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24056,19 +24056,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.905297830925</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>108.0031680536329</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>74.3088181214066</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>51.70872008287463</v>
+        <v>72.94979525863039</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>19.89866189156959</v>
+        <v>138.1931316949615</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3367741439016</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>156.4106934180136</v>
+        <v>158.9607559314126</v>
       </c>
       <c r="I22" t="n">
-        <v>135.7767399294862</v>
+        <v>144.4021047498582</v>
       </c>
       <c r="J22" t="n">
-        <v>47.10687144748485</v>
+        <v>67.38482253818422</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.38127751273463</v>
+        <v>55.3982773193994</v>
       </c>
       <c r="R22" t="n">
-        <v>147.8779460026287</v>
+        <v>160.7742744190617</v>
       </c>
       <c r="S22" t="n">
-        <v>212.6155853432815</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.1503489660829</v>
+        <v>201.5615510548945</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2833454356968</v>
+        <v>286.2989899909938</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.77756817550394</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>277.4190334016639</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>271.7834445598556</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -24265,16 +24265,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24417,7 +24417,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>196.5877562063638</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
@@ -24426,10 +24426,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>12.03533246204699</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24445,25 +24445,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>184.0062896670966</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>137.4858593693203</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>8.029132914089132e-13</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>4.910330425104604</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24618,7 +24618,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923382</v>
@@ -24648,10 +24648,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>14.78429850839063</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
@@ -24663,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>179.8867444603301</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>154.1433376705741</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24727,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,7 +24855,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2683608148411</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923382</v>
@@ -24891,22 +24891,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24922,7 +24922,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>62.74943761750103</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24967,22 +24967,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>36.17443222607073</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>107.5829646831827</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>55.63641463144656</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>45.199959188537</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,25 +25156,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>1.107082982095221</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.68190677500323</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>72.60755131498752</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25359,7 +25359,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25368,19 +25368,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>103.3473385410182</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>143.6806283430518</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>353.7959079654929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25599,7 +25599,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>143.955245206383</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
@@ -25611,10 +25611,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>170.0415395682882</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>164.3604017932788</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>84.06035595945002</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25675,22 +25675,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25836,13 +25836,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>117.5062691663786</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>56.93405031343804</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25873,7 +25873,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>169.8618544683337</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>298.8787824626635</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25927,10 +25927,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S45" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>38.52630155726081</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>100.9451361130952</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
         <v>45.19995918853701</v>
@@ -26079,13 +26079,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>448752.9057247414</v>
+        <v>448752.9057247413</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>448752.9057247414</v>
+        <v>448752.9057247413</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>448752.9057247415</v>
+        <v>448752.9057247413</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>477458.0775964577</v>
+        <v>621232.7490878663</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>477458.0775964577</v>
+        <v>621232.7490878663</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>756767.1276772434</v>
+        <v>621232.7490878663</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>756767.1276772434</v>
+        <v>621232.7490878663</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>769512.6051115737</v>
+        <v>769512.6051115735</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>769512.6051115738</v>
+        <v>769512.6051115735</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>769512.6051115735</v>
+        <v>769512.6051115737</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>769512.6051115735</v>
+        <v>769512.6051115737</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>769512.6051115737</v>
+        <v>769512.6051115734</v>
       </c>
     </row>
   </sheetData>
@@ -26322,25 +26322,25 @@
         <v>149544.6052781992</v>
       </c>
       <c r="E2" t="n">
-        <v>159463.6497950858</v>
+        <v>209073.2454403407</v>
       </c>
       <c r="F2" t="n">
-        <v>159463.6497950858</v>
+        <v>209073.2454403406</v>
       </c>
       <c r="G2" t="n">
-        <v>255839.510055909</v>
+        <v>209073.2454403406</v>
       </c>
       <c r="H2" t="n">
-        <v>255839.510055909</v>
+        <v>209073.2454403406</v>
       </c>
       <c r="I2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="J2" t="n">
         <v>260237.3490141816</v>
       </c>
       <c r="K2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="L2" t="n">
         <v>260237.3490141816</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>38628.88112923566</v>
+        <v>232690.6085665888</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>359192.6012996552</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>15879.4197455676</v>
+        <v>184739.8879912184</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8757.582995213648</v>
+        <v>57598.62967555034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>91629.1880228248</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
-        <v>16991.84893966586</v>
+        <v>17600.55389603377</v>
       </c>
       <c r="F4" t="n">
-        <v>16991.84893966587</v>
+        <v>17600.55389603377</v>
       </c>
       <c r="G4" t="n">
-        <v>18174.91536131386</v>
+        <v>17600.55389603377</v>
       </c>
       <c r="H4" t="n">
-        <v>18174.91536131386</v>
+        <v>17600.55389603377</v>
       </c>
       <c r="I4" t="n">
         <v>18228.92756966326</v>
@@ -26478,16 +26478,16 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>17553.77951678015</v>
+        <v>33147.7907681928</v>
       </c>
       <c r="F5" t="n">
-        <v>17553.77951678015</v>
+        <v>33147.7907681928</v>
       </c>
       <c r="G5" t="n">
-        <v>47848.99578308385</v>
+        <v>33147.7907681928</v>
       </c>
       <c r="H5" t="n">
-        <v>47848.99578308385</v>
+        <v>33147.7907681928</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3579.215341908923</v>
+        <v>-8638.795278131514</v>
       </c>
       <c r="C6" t="n">
-        <v>84348.64687345666</v>
+        <v>72130.63625341625</v>
       </c>
       <c r="D6" t="n">
-        <v>84348.64687345669</v>
+        <v>72130.63625341619</v>
       </c>
       <c r="E6" t="n">
-        <v>86289.14020940417</v>
+        <v>-83276.57173484069</v>
       </c>
       <c r="F6" t="n">
-        <v>124918.0213386398</v>
+        <v>149414.0368317481</v>
       </c>
       <c r="G6" t="n">
-        <v>-169377.0023881439</v>
+        <v>149414.0368317481</v>
       </c>
       <c r="H6" t="n">
-        <v>189815.5989115112</v>
+        <v>149414.0368317481</v>
       </c>
       <c r="I6" t="n">
-        <v>176897.5236355414</v>
+        <v>1968.641644071235</v>
       </c>
       <c r="J6" t="n">
-        <v>129717.0007820026</v>
+        <v>123648.5870361835</v>
       </c>
       <c r="K6" t="n">
-        <v>192776.943381109</v>
+        <v>186708.5296352897</v>
       </c>
       <c r="L6" t="n">
-        <v>192776.9433811089</v>
+        <v>186708.5296352897</v>
       </c>
       <c r="M6" t="n">
-        <v>184019.3603858953</v>
+        <v>129109.8999597395</v>
       </c>
       <c r="N6" t="n">
-        <v>192776.9433811089</v>
+        <v>186708.5296352896</v>
       </c>
       <c r="O6" t="n">
-        <v>101147.7553582841</v>
+        <v>186708.5296352897</v>
       </c>
       <c r="P6" t="n">
-        <v>192776.9433811089</v>
+        <v>186708.5296352897</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912534</v>
+        <v>203.7335492204966</v>
       </c>
       <c r="F3" t="n">
-        <v>35.02126071912534</v>
+        <v>203.7335492204966</v>
       </c>
       <c r="G3" t="n">
-        <v>362.7865280725812</v>
+        <v>203.7335492204965</v>
       </c>
       <c r="H3" t="n">
-        <v>362.7865280725812</v>
+        <v>203.7335492204966</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26798,22 +26798,22 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>276.1565137023555</v>
+        <v>472.1447268945062</v>
       </c>
       <c r="F4" t="n">
-        <v>276.1565137023555</v>
+        <v>472.1447268945061</v>
       </c>
       <c r="G4" t="n">
-        <v>656.9119978799603</v>
+        <v>472.1447268945061</v>
       </c>
       <c r="H4" t="n">
-        <v>656.9119978799603</v>
+        <v>472.1447268945061</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
@@ -26825,10 +26825,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="O4" t="n">
         <v>674.2872727545555</v>
-      </c>
-      <c r="O4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545555</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912534</v>
+        <v>203.7335492204966</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>327.7652673534558</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>14.95713614450545</v>
+        <v>174.0101149965901</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>35.14222482469643</v>
+        <v>231.1304380168471</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>380.7554841776048</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.37527487459533</v>
+        <v>202.1425458600495</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469643</v>
+        <v>231.130438016847</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>380.7554841776049</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469643</v>
+        <v>231.1304380168471</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>380.7554841776048</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.8190293435999858</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4418552214663</v>
+        <v>8.387884265143358</v>
       </c>
       <c r="I11" t="n">
-        <v>5.42776745276012</v>
+        <v>31.57562876913848</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>69.51409175136936</v>
       </c>
       <c r="K11" t="n">
-        <v>17.90888720884599</v>
+        <v>104.1836038659568</v>
       </c>
       <c r="L11" t="n">
-        <v>22.21755819470702</v>
+        <v>129.2489731401549</v>
       </c>
       <c r="M11" t="n">
-        <v>24.72131435677233</v>
+        <v>143.8143862294011</v>
       </c>
       <c r="N11" t="n">
-        <v>25.12133106840334</v>
+        <v>146.1414533519046</v>
       </c>
       <c r="O11" t="n">
-        <v>23.72136057081218</v>
+        <v>137.9972303164822</v>
       </c>
       <c r="P11" t="n">
-        <v>20.24563243411507</v>
+        <v>117.7774433963576</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.20362680796963</v>
+        <v>88.44595502868303</v>
       </c>
       <c r="R11" t="n">
-        <v>8.84383625587038</v>
+        <v>51.44835200491266</v>
       </c>
       <c r="S11" t="n">
-        <v>3.208229059847513</v>
+        <v>18.6636311672847</v>
       </c>
       <c r="T11" t="n">
-        <v>0.616303794162698</v>
+        <v>3.58530095160894</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.06552234748799886</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.4382193322855965</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7275171330520189</v>
+        <v>4.232276182863525</v>
       </c>
       <c r="I12" t="n">
-        <v>2.593555628727679</v>
+        <v>15.08781473000848</v>
       </c>
       <c r="J12" t="n">
-        <v>7.116914878779991</v>
+        <v>41.40211682791244</v>
       </c>
       <c r="K12" t="n">
-        <v>12.16394109335885</v>
+        <v>70.76281209104741</v>
       </c>
       <c r="L12" t="n">
-        <v>16.35591992358773</v>
+        <v>95.1493335298178</v>
       </c>
       <c r="M12" t="n">
-        <v>19.08658709192331</v>
+        <v>111.0347843251706</v>
       </c>
       <c r="N12" t="n">
-        <v>19.59175225833409</v>
+        <v>113.9735446719456</v>
       </c>
       <c r="O12" t="n">
-        <v>17.92262575689049</v>
+        <v>104.2635268355121</v>
       </c>
       <c r="P12" t="n">
-        <v>14.38448725650263</v>
+        <v>83.68067232039607</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.615648792164377</v>
+        <v>55.93831336333334</v>
       </c>
       <c r="R12" t="n">
-        <v>4.676990252263571</v>
+        <v>27.20803889401275</v>
       </c>
       <c r="S12" t="n">
-        <v>1.399198482504676</v>
+        <v>8.139731895743422</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3036277226497752</v>
+        <v>1.766331431449399</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.02883021922931557</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.3673883674467971</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5614884095623704</v>
+        <v>3.266416576026981</v>
       </c>
       <c r="I13" t="n">
-        <v>1.899185745227322</v>
+        <v>11.04837017740005</v>
       </c>
       <c r="J13" t="n">
-        <v>4.464923682174389</v>
+        <v>25.97435757848856</v>
       </c>
       <c r="K13" t="n">
-        <v>7.337241180170847</v>
+        <v>42.68384850881879</v>
       </c>
       <c r="L13" t="n">
-        <v>9.389142586894685</v>
+        <v>54.6206305565902</v>
       </c>
       <c r="M13" t="n">
-        <v>9.89953440294882</v>
+        <v>57.58979654441021</v>
       </c>
       <c r="N13" t="n">
-        <v>9.664145601394052</v>
+        <v>56.22043990210855</v>
       </c>
       <c r="O13" t="n">
-        <v>8.926402650179687</v>
+        <v>51.92867579148004</v>
       </c>
       <c r="P13" t="n">
-        <v>7.638079550938414</v>
+        <v>44.43395309556534</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.288210368587926</v>
+        <v>30.76376593229499</v>
       </c>
       <c r="R13" t="n">
-        <v>2.839592713390063</v>
+        <v>16.5191169581078</v>
       </c>
       <c r="S13" t="n">
-        <v>1.100586177025627</v>
+        <v>6.402577276322817</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2698359432457197</v>
+        <v>1.569750297272678</v>
       </c>
       <c r="U13" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.02003936549709805</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.8190293435999858</v>
       </c>
       <c r="H14" t="n">
-        <v>1.4418552214663</v>
+        <v>8.387884265143358</v>
       </c>
       <c r="I14" t="n">
-        <v>5.42776745276012</v>
+        <v>31.57562876913848</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>69.51409175136936</v>
       </c>
       <c r="K14" t="n">
-        <v>17.90888720884599</v>
+        <v>104.1836038659568</v>
       </c>
       <c r="L14" t="n">
-        <v>22.21755819470702</v>
+        <v>129.2489731401549</v>
       </c>
       <c r="M14" t="n">
-        <v>24.72131435677233</v>
+        <v>143.8143862294011</v>
       </c>
       <c r="N14" t="n">
-        <v>25.12133106840334</v>
+        <v>146.1414533519046</v>
       </c>
       <c r="O14" t="n">
-        <v>23.72136057081218</v>
+        <v>137.9972303164822</v>
       </c>
       <c r="P14" t="n">
-        <v>20.24563243411507</v>
+        <v>117.7774433963576</v>
       </c>
       <c r="Q14" t="n">
-        <v>15.20362680796963</v>
+        <v>88.44595502868303</v>
       </c>
       <c r="R14" t="n">
-        <v>8.84383625587038</v>
+        <v>51.44835200491266</v>
       </c>
       <c r="S14" t="n">
-        <v>3.208229059847513</v>
+        <v>18.6636311672847</v>
       </c>
       <c r="T14" t="n">
-        <v>0.616303794162698</v>
+        <v>3.58530095160894</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.06552234748799886</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.4382193322855965</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7275171330520189</v>
+        <v>4.232276182863525</v>
       </c>
       <c r="I15" t="n">
-        <v>2.593555628727679</v>
+        <v>15.08781473000848</v>
       </c>
       <c r="J15" t="n">
-        <v>7.116914878779991</v>
+        <v>41.40211682791244</v>
       </c>
       <c r="K15" t="n">
-        <v>12.16394109335885</v>
+        <v>70.76281209104741</v>
       </c>
       <c r="L15" t="n">
-        <v>16.35591992358773</v>
+        <v>95.1493335298178</v>
       </c>
       <c r="M15" t="n">
-        <v>19.08658709192331</v>
+        <v>111.0347843251706</v>
       </c>
       <c r="N15" t="n">
-        <v>19.59175225833409</v>
+        <v>113.9735446719456</v>
       </c>
       <c r="O15" t="n">
-        <v>17.92262575689049</v>
+        <v>104.2635268355121</v>
       </c>
       <c r="P15" t="n">
-        <v>14.38448725650263</v>
+        <v>83.68067232039607</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.615648792164377</v>
+        <v>55.93831336333334</v>
       </c>
       <c r="R15" t="n">
-        <v>4.676990252263571</v>
+        <v>27.20803889401275</v>
       </c>
       <c r="S15" t="n">
-        <v>1.399198482504676</v>
+        <v>8.139731895743422</v>
       </c>
       <c r="T15" t="n">
-        <v>0.3036277226497752</v>
+        <v>1.766331431449399</v>
       </c>
       <c r="U15" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.02883021922931557</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.3673883674467971</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5614884095623704</v>
+        <v>3.266416576026981</v>
       </c>
       <c r="I16" t="n">
-        <v>1.899185745227322</v>
+        <v>11.04837017740005</v>
       </c>
       <c r="J16" t="n">
-        <v>4.464923682174389</v>
+        <v>25.97435757848856</v>
       </c>
       <c r="K16" t="n">
-        <v>7.337241180170847</v>
+        <v>42.68384850881879</v>
       </c>
       <c r="L16" t="n">
-        <v>9.389142586894685</v>
+        <v>54.6206305565902</v>
       </c>
       <c r="M16" t="n">
-        <v>9.89953440294882</v>
+        <v>57.58979654441021</v>
       </c>
       <c r="N16" t="n">
-        <v>9.664145601394052</v>
+        <v>56.22043990210855</v>
       </c>
       <c r="O16" t="n">
-        <v>8.926402650179687</v>
+        <v>51.92867579148004</v>
       </c>
       <c r="P16" t="n">
-        <v>7.638079550938414</v>
+        <v>44.43395309556534</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.288210368587926</v>
+        <v>30.76376593229499</v>
       </c>
       <c r="R16" t="n">
-        <v>2.839592713390063</v>
+        <v>16.5191169581078</v>
       </c>
       <c r="S16" t="n">
-        <v>1.100586177025627</v>
+        <v>6.402577276322817</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2698359432457197</v>
+        <v>1.569750297272678</v>
       </c>
       <c r="U16" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.02003936549709805</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.45843830380937</v>
+        <v>0.8190293435999855</v>
       </c>
       <c r="H17" t="n">
-        <v>14.93623127888772</v>
+        <v>8.387884265143354</v>
       </c>
       <c r="I17" t="n">
-        <v>56.22644270761081</v>
+        <v>31.57562876913847</v>
       </c>
       <c r="J17" t="n">
-        <v>123.7831279879407</v>
+        <v>69.51409175136934</v>
       </c>
       <c r="K17" t="n">
-        <v>185.5188213881914</v>
+        <v>104.1836038659567</v>
       </c>
       <c r="L17" t="n">
-        <v>230.1525026283974</v>
+        <v>129.2489731401548</v>
       </c>
       <c r="M17" t="n">
-        <v>256.0890048137673</v>
+        <v>143.8143862294011</v>
       </c>
       <c r="N17" t="n">
-        <v>260.2327926444657</v>
+        <v>146.1414533519045</v>
       </c>
       <c r="O17" t="n">
-        <v>245.7304467609613</v>
+        <v>137.9972303164822</v>
       </c>
       <c r="P17" t="n">
-        <v>209.7252511356674</v>
+        <v>117.7774433963575</v>
       </c>
       <c r="Q17" t="n">
-        <v>157.4949293804943</v>
+        <v>88.44595502868299</v>
       </c>
       <c r="R17" t="n">
-        <v>91.61362510166545</v>
+        <v>51.44835200491264</v>
       </c>
       <c r="S17" t="n">
-        <v>33.23416284805607</v>
+        <v>18.66363116728469</v>
       </c>
       <c r="T17" t="n">
-        <v>6.384313674925522</v>
+        <v>3.585300951608938</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1166750643047496</v>
+        <v>0.06552234748799883</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7803332867976275</v>
+        <v>0.4382193322855963</v>
       </c>
       <c r="H18" t="n">
-        <v>7.536376743545508</v>
+        <v>4.232276182863523</v>
       </c>
       <c r="I18" t="n">
-        <v>26.86673816386569</v>
+        <v>15.08781473000847</v>
       </c>
       <c r="J18" t="n">
-        <v>73.72438303029691</v>
+        <v>41.40211682791242</v>
       </c>
       <c r="K18" t="n">
-        <v>126.0067132457379</v>
+        <v>70.76281209104738</v>
       </c>
       <c r="L18" t="n">
-        <v>169.4315761531428</v>
+        <v>95.14933352981775</v>
       </c>
       <c r="M18" t="n">
-        <v>197.7186577995567</v>
+        <v>111.0347843251706</v>
       </c>
       <c r="N18" t="n">
-        <v>202.9516823412829</v>
+        <v>113.9735446719455</v>
       </c>
       <c r="O18" t="n">
-        <v>185.6611395127671</v>
+        <v>104.263526835512</v>
       </c>
       <c r="P18" t="n">
-        <v>149.0094326341891</v>
+        <v>83.68067232039603</v>
       </c>
       <c r="Q18" t="n">
-        <v>99.60885955683401</v>
+        <v>55.93831336333332</v>
       </c>
       <c r="R18" t="n">
-        <v>48.44911406976851</v>
+        <v>27.20803889401274</v>
       </c>
       <c r="S18" t="n">
-        <v>14.49434855082434</v>
+        <v>8.139731895743418</v>
       </c>
       <c r="T18" t="n">
-        <v>3.145290748100962</v>
+        <v>1.766331431449399</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05133771623668604</v>
+        <v>0.02883021922931556</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6542052145571136</v>
+        <v>0.367388367446797</v>
       </c>
       <c r="H19" t="n">
-        <v>5.816479089425977</v>
+        <v>3.266416576026979</v>
       </c>
       <c r="I19" t="n">
-        <v>19.67373499777211</v>
+        <v>11.04837017740004</v>
       </c>
       <c r="J19" t="n">
-        <v>46.25230866918793</v>
+        <v>25.97435757848855</v>
       </c>
       <c r="K19" t="n">
-        <v>76.0067512912719</v>
+        <v>42.68384850881877</v>
       </c>
       <c r="L19" t="n">
-        <v>97.26247344424579</v>
+        <v>54.62063055659017</v>
       </c>
       <c r="M19" t="n">
-        <v>102.5496410418937</v>
+        <v>57.58979654441018</v>
       </c>
       <c r="N19" t="n">
-        <v>100.1112397876355</v>
+        <v>56.22043990210853</v>
       </c>
       <c r="O19" t="n">
-        <v>92.46893341758187</v>
+        <v>51.92867579148002</v>
       </c>
       <c r="P19" t="n">
-        <v>79.12314704061669</v>
+        <v>44.43395309556532</v>
       </c>
       <c r="Q19" t="n">
-        <v>54.78076573895976</v>
+        <v>30.76376593229498</v>
       </c>
       <c r="R19" t="n">
-        <v>29.41544537454075</v>
+        <v>16.51911695810779</v>
       </c>
       <c r="S19" t="n">
-        <v>11.40101269369078</v>
+        <v>6.402577276322814</v>
       </c>
       <c r="T19" t="n">
-        <v>2.795240462198575</v>
+        <v>1.569750297272678</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03568392079402442</v>
+        <v>0.02003936549709804</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.45843830380937</v>
+        <v>0.8190293435999856</v>
       </c>
       <c r="H20" t="n">
-        <v>14.93623127888772</v>
+        <v>8.387884265143354</v>
       </c>
       <c r="I20" t="n">
-        <v>56.22644270761081</v>
+        <v>31.57562876913848</v>
       </c>
       <c r="J20" t="n">
-        <v>123.7831279879407</v>
+        <v>69.51409175136934</v>
       </c>
       <c r="K20" t="n">
-        <v>185.5188213881914</v>
+        <v>104.1836038659568</v>
       </c>
       <c r="L20" t="n">
-        <v>230.1525026283974</v>
+        <v>129.2489731401548</v>
       </c>
       <c r="M20" t="n">
-        <v>256.0890048137673</v>
+        <v>143.8143862294011</v>
       </c>
       <c r="N20" t="n">
-        <v>260.2327926444657</v>
+        <v>146.1414533519045</v>
       </c>
       <c r="O20" t="n">
-        <v>245.7304467609613</v>
+        <v>137.9972303164822</v>
       </c>
       <c r="P20" t="n">
-        <v>209.7252511356674</v>
+        <v>117.7774433963575</v>
       </c>
       <c r="Q20" t="n">
-        <v>157.4949293804943</v>
+        <v>88.445955028683</v>
       </c>
       <c r="R20" t="n">
-        <v>91.61362510166545</v>
+        <v>51.44835200491264</v>
       </c>
       <c r="S20" t="n">
-        <v>33.23416284805607</v>
+        <v>18.66363116728469</v>
       </c>
       <c r="T20" t="n">
-        <v>6.384313674925522</v>
+        <v>3.585300951608939</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1166750643047496</v>
+        <v>0.06552234748799883</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7803332867976275</v>
+        <v>0.4382193322855964</v>
       </c>
       <c r="H21" t="n">
-        <v>7.536376743545508</v>
+        <v>4.232276182863524</v>
       </c>
       <c r="I21" t="n">
-        <v>26.86673816386569</v>
+        <v>15.08781473000847</v>
       </c>
       <c r="J21" t="n">
-        <v>73.72438303029691</v>
+        <v>41.40211682791243</v>
       </c>
       <c r="K21" t="n">
-        <v>126.0067132457379</v>
+        <v>70.76281209104738</v>
       </c>
       <c r="L21" t="n">
-        <v>169.4315761531428</v>
+        <v>95.14933352981777</v>
       </c>
       <c r="M21" t="n">
-        <v>197.7186577995567</v>
+        <v>111.0347843251706</v>
       </c>
       <c r="N21" t="n">
-        <v>202.9516823412829</v>
+        <v>113.9735446719455</v>
       </c>
       <c r="O21" t="n">
-        <v>185.6611395127671</v>
+        <v>104.2635268355121</v>
       </c>
       <c r="P21" t="n">
-        <v>149.0094326341891</v>
+        <v>83.68067232039604</v>
       </c>
       <c r="Q21" t="n">
-        <v>99.60885955683401</v>
+        <v>55.93831336333333</v>
       </c>
       <c r="R21" t="n">
-        <v>48.44911406976851</v>
+        <v>27.20803889401274</v>
       </c>
       <c r="S21" t="n">
-        <v>14.49434855082434</v>
+        <v>8.139731895743418</v>
       </c>
       <c r="T21" t="n">
-        <v>3.145290748100962</v>
+        <v>1.766331431449399</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05133771623668604</v>
+        <v>0.02883021922931556</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6542052145571136</v>
+        <v>0.367388367446797</v>
       </c>
       <c r="H22" t="n">
-        <v>5.816479089425977</v>
+        <v>3.26641657602698</v>
       </c>
       <c r="I22" t="n">
-        <v>19.67373499777211</v>
+        <v>11.04837017740005</v>
       </c>
       <c r="J22" t="n">
-        <v>46.25230866918793</v>
+        <v>25.97435757848855</v>
       </c>
       <c r="K22" t="n">
-        <v>76.0067512912719</v>
+        <v>42.68384850881878</v>
       </c>
       <c r="L22" t="n">
-        <v>97.26247344424579</v>
+        <v>54.62063055659019</v>
       </c>
       <c r="M22" t="n">
-        <v>102.5496410418937</v>
+        <v>57.58979654441019</v>
       </c>
       <c r="N22" t="n">
-        <v>100.1112397876355</v>
+        <v>56.22043990210854</v>
       </c>
       <c r="O22" t="n">
-        <v>92.46893341758187</v>
+        <v>51.92867579148002</v>
       </c>
       <c r="P22" t="n">
-        <v>79.12314704061669</v>
+        <v>44.43395309556533</v>
       </c>
       <c r="Q22" t="n">
-        <v>54.78076573895976</v>
+        <v>30.76376593229498</v>
       </c>
       <c r="R22" t="n">
-        <v>29.41544537454075</v>
+        <v>16.5191169581078</v>
       </c>
       <c r="S22" t="n">
-        <v>11.40101269369078</v>
+        <v>6.402577276322815</v>
       </c>
       <c r="T22" t="n">
-        <v>2.795240462198575</v>
+        <v>1.569750297272678</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03568392079402442</v>
+        <v>0.02003936549709804</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34786,16 +34786,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35029,7 +35029,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>57.56480239675685</v>
       </c>
       <c r="K11" t="n">
-        <v>121.9644487350302</v>
+        <v>208.239165392141</v>
       </c>
       <c r="L11" t="n">
-        <v>204.1123577751702</v>
+        <v>311.1437727206181</v>
       </c>
       <c r="M11" t="n">
-        <v>243.8886146223321</v>
+        <v>362.9816864949609</v>
       </c>
       <c r="N11" t="n">
-        <v>233.0551918837966</v>
+        <v>354.0753141672978</v>
       </c>
       <c r="O11" t="n">
-        <v>174.4233304118708</v>
+        <v>288.6992001575409</v>
       </c>
       <c r="P11" t="n">
-        <v>110.8113448503282</v>
+        <v>208.3431558125707</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.212927593424828</v>
+        <v>78.45525581413823</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>40.65552550165458</v>
       </c>
       <c r="K12" t="n">
-        <v>138.7877391315785</v>
+        <v>197.386610129267</v>
       </c>
       <c r="L12" t="n">
-        <v>248.6418854471727</v>
+        <v>253.3167675588268</v>
       </c>
       <c r="M12" t="n">
-        <v>158.2658797799248</v>
+        <v>434.6058141531522</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>461.9742069321658</v>
       </c>
       <c r="O12" t="n">
-        <v>269.1887005891756</v>
+        <v>355.5296016677972</v>
       </c>
       <c r="P12" t="n">
-        <v>198.8728484821096</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>79.71116244199196</v>
+        <v>126.0338270131609</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>20.41435668293594</v>
       </c>
       <c r="L13" t="n">
-        <v>36.97916784721082</v>
+        <v>82.21065581690634</v>
       </c>
       <c r="M13" t="n">
-        <v>49.4834113647894</v>
+        <v>97.17367350625079</v>
       </c>
       <c r="N13" t="n">
-        <v>53.79631798062265</v>
+        <v>100.3526122813371</v>
       </c>
       <c r="O13" t="n">
-        <v>33.51153056421936</v>
+        <v>76.51380370551971</v>
       </c>
       <c r="P13" t="n">
-        <v>4.916638815831902</v>
+        <v>41.71251236045883</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>57.56480239675685</v>
       </c>
       <c r="K14" t="n">
-        <v>121.9644487350302</v>
+        <v>208.239165392141</v>
       </c>
       <c r="L14" t="n">
-        <v>204.1123577751702</v>
+        <v>311.1437727206181</v>
       </c>
       <c r="M14" t="n">
-        <v>243.8886146223321</v>
+        <v>362.9816864949609</v>
       </c>
       <c r="N14" t="n">
-        <v>233.0551918837966</v>
+        <v>354.0753141672978</v>
       </c>
       <c r="O14" t="n">
-        <v>174.4233304118708</v>
+        <v>288.6992001575409</v>
       </c>
       <c r="P14" t="n">
-        <v>110.8113448503282</v>
+        <v>208.3431558125707</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.212927593424828</v>
+        <v>78.45525581413823</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>6.370323552522134</v>
+        <v>40.65552550165458</v>
       </c>
       <c r="K15" t="n">
-        <v>138.7877391315785</v>
+        <v>197.386610129267</v>
       </c>
       <c r="L15" t="n">
-        <v>248.6418854471727</v>
+        <v>111.1815610259843</v>
       </c>
       <c r="M15" t="n">
-        <v>276.1565137023555</v>
+        <v>434.6058141531522</v>
       </c>
       <c r="N15" t="n">
-        <v>144.9277431142228</v>
+        <v>461.9742069321658</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>355.5296016677972</v>
       </c>
       <c r="P15" t="n">
-        <v>198.8728484821096</v>
+        <v>268.169033546003</v>
       </c>
       <c r="Q15" t="n">
-        <v>79.71116244199196</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20.41435668293594</v>
       </c>
       <c r="L16" t="n">
-        <v>36.97916784721082</v>
+        <v>82.21065581690634</v>
       </c>
       <c r="M16" t="n">
-        <v>49.4834113647894</v>
+        <v>97.17367350625079</v>
       </c>
       <c r="N16" t="n">
-        <v>53.79631798062265</v>
+        <v>100.3526122813371</v>
       </c>
       <c r="O16" t="n">
-        <v>33.51153056421936</v>
+        <v>76.51380370551971</v>
       </c>
       <c r="P16" t="n">
-        <v>4.916638815831902</v>
+        <v>41.71251236045883</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>111.8338386333282</v>
+        <v>57.56480239675682</v>
       </c>
       <c r="K17" t="n">
-        <v>289.5743829143755</v>
+        <v>208.2391653921409</v>
       </c>
       <c r="L17" t="n">
-        <v>412.0473022088606</v>
+        <v>311.143772720618</v>
       </c>
       <c r="M17" t="n">
-        <v>475.256305079327</v>
+        <v>362.9816864949609</v>
       </c>
       <c r="N17" t="n">
-        <v>468.1666534598589</v>
+        <v>354.0753141672977</v>
       </c>
       <c r="O17" t="n">
-        <v>396.4324166020199</v>
+        <v>288.6992001575408</v>
       </c>
       <c r="P17" t="n">
-        <v>300.2909635518805</v>
+        <v>208.3431558125706</v>
       </c>
       <c r="Q17" t="n">
-        <v>147.5042301659495</v>
+        <v>78.45525581413818</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>72.97779170403905</v>
+        <v>40.65552550165457</v>
       </c>
       <c r="K18" t="n">
-        <v>252.6305112839576</v>
+        <v>197.386610129267</v>
       </c>
       <c r="L18" t="n">
-        <v>401.7175416767278</v>
+        <v>327.4352990534027</v>
       </c>
       <c r="M18" t="n">
-        <v>521.2896876275383</v>
+        <v>434.6058141531522</v>
       </c>
       <c r="N18" t="n">
-        <v>412.3611789118277</v>
+        <v>461.9742069321658</v>
       </c>
       <c r="O18" t="n">
-        <v>436.9272143450522</v>
+        <v>281.411070173221</v>
       </c>
       <c r="P18" t="n">
-        <v>333.497793859796</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>169.7043732066616</v>
+        <v>126.0338270131609</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>53.73725946538904</v>
+        <v>20.41435668293592</v>
       </c>
       <c r="L19" t="n">
-        <v>124.8524987045619</v>
+        <v>82.21065581690631</v>
       </c>
       <c r="M19" t="n">
-        <v>142.1335180037343</v>
+        <v>97.17367350625076</v>
       </c>
       <c r="N19" t="n">
-        <v>144.2434121668641</v>
+        <v>100.3526122813371</v>
       </c>
       <c r="O19" t="n">
-        <v>117.0540613316215</v>
+        <v>76.51380370551969</v>
       </c>
       <c r="P19" t="n">
-        <v>76.40170630551017</v>
+        <v>41.71251236045881</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>111.8338386333282</v>
+        <v>57.56480239675682</v>
       </c>
       <c r="K20" t="n">
-        <v>289.5743829143755</v>
+        <v>208.2391653921409</v>
       </c>
       <c r="L20" t="n">
-        <v>412.0473022088606</v>
+        <v>311.143772720618</v>
       </c>
       <c r="M20" t="n">
-        <v>475.256305079327</v>
+        <v>362.9816864949609</v>
       </c>
       <c r="N20" t="n">
-        <v>468.1666534598589</v>
+        <v>354.0753141672978</v>
       </c>
       <c r="O20" t="n">
-        <v>396.4324166020199</v>
+        <v>288.6992001575408</v>
       </c>
       <c r="P20" t="n">
-        <v>300.2909635518805</v>
+        <v>208.3431558125706</v>
       </c>
       <c r="Q20" t="n">
-        <v>147.5042301659495</v>
+        <v>78.4552558141382</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>72.97779170403905</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>252.6305112839576</v>
+        <v>21.78839760350335</v>
       </c>
       <c r="L21" t="n">
-        <v>401.7175416767278</v>
+        <v>327.4352990534028</v>
       </c>
       <c r="M21" t="n">
-        <v>521.2896876275383</v>
+        <v>434.6058141531522</v>
       </c>
       <c r="N21" t="n">
-        <v>550.9523446015032</v>
+        <v>461.9742069321658</v>
       </c>
       <c r="O21" t="n">
-        <v>436.9272143450522</v>
+        <v>355.5296016677971</v>
       </c>
       <c r="P21" t="n">
-        <v>333.497793859796</v>
+        <v>268.169033546003</v>
       </c>
       <c r="Q21" t="n">
-        <v>31.11320751698608</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>53.73725946538904</v>
+        <v>20.41435668293592</v>
       </c>
       <c r="L22" t="n">
-        <v>124.8524987045619</v>
+        <v>82.21065581690632</v>
       </c>
       <c r="M22" t="n">
-        <v>142.1335180037343</v>
+        <v>97.17367350625078</v>
       </c>
       <c r="N22" t="n">
-        <v>144.2434121668641</v>
+        <v>100.3526122813371</v>
       </c>
       <c r="O22" t="n">
-        <v>117.0540613316215</v>
+        <v>76.51380370551971</v>
       </c>
       <c r="P22" t="n">
-        <v>76.40170630551017</v>
+        <v>41.71251236045882</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730077</v>
       </c>
       <c r="M27" t="n">
         <v>529.4413268262938</v>
@@ -36688,7 +36688,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
@@ -36913,10 +36913,10 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M30" t="n">
         <v>529.4413268262938</v>
@@ -37156,7 +37156,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
         <v>559.3197334338902</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L36" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
         <v>529.4413268262938</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
-        <v>410.0055067279158</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
         <v>559.3197334338902</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37876,10 +37876,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
-        <v>289.2671274730077</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
         <v>529.4413268262938</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
